--- a/va_facility_data_2025-02-20/American Lake VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''American%20Lake%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/American Lake VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''American%20Lake%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R70a24703fc3a4964861451b11dd75c68"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra628eba4e5d94cc1bd633243f3645d07"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R81445bd21f1a47c393fe47b0381c3796"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb7712f84b7224f86b724766772b15ce1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1a49b88bec5d4fb98a0975ffd9007db4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0b2e45ad055e43feac6fa1ca424179e6"/>
   </x:sheets>
 </x:workbook>
 </file>
